--- a/结果/disscussion.xlsx
+++ b/结果/disscussion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C3AB4AA6-2AF4-441C-8F50-6861D0AF9C36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9DAAFB4A-0E0E-4430-B7F6-F3E99A7160B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>11 22</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -103,6 +103,22 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +521,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -897,37 +913,37 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>0.81835207672896104</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>0.67653743224612739</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>0.56814093919641762</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>0.69721196520385476</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>0.71407374778852173</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>0.42676391720978951</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.89372471475976178</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.6994133210629242</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>0.42589953647315792</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>0.65061549601737867</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>0.78505897771952815</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -1015,7 +1031,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>0.82897140935856362</v>
       </c>
       <c r="B10" s="4">
@@ -1064,13 +1080,72 @@
         <v>21</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R10" t="s">
         <v>14</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>0.81846410395007085</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.6695768129185834</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.57399252201968276</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.67855595561735227</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.72042625793640636</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.39791167321399779</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.88641301877358059</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.68287127573910045</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.39687917184134103</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.61709401709401712</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.78855395369156833</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">

--- a/结果/disscussion.xlsx
+++ b/结果/disscussion.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C3AB4AA6-2AF4-441C-8F50-6861D0AF9C36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB953644-36EB-437A-8CC7-7951AF2B9EC0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>11 22</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -103,6 +103,22 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -504,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1073,6 +1089,65 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>0.82782066943172916</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.6562051387752007</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.58379469477637302</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.65100339891150416</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.75473068996406145</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.3906895489471971</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.86644165643892901</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.68372253537328886</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.38971494273940271</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.6294200848656295</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.77763215377894279</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>17</v>

--- a/结果/disscussion.xlsx
+++ b/结果/disscussion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB953644-36EB-437A-8CC7-7951AF2B9EC0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F4DB3-E28F-4F64-8968-1EBB97B7367E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>11 22</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -119,6 +119,22 @@
   </si>
   <si>
     <t>0 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -520,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1148,6 +1164,65 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>0.81846410395007085</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.6695768129185834</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.57399252201968276</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.67855595561735227</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.72042625793640636</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.39791167321399779</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.88641301877358059</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.68287127573910045</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.39687917184134103</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.61709401709401712</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.78855395369156833</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <v>21</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>17</v>
